--- a/LPPC/Plugins/topsky/TopSky_Developer_Guide_Settings.xlsx
+++ b/LPPC/Plugins/topsky/TopSky_Developer_Guide_Settings.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EDCBAF-7396-46A2-B163-6D8172160C39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C286C04B-512D-4126-BC62-AB3FA033D8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TopSky 2.3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4139,9 +4137,6 @@
     <t>Filter warnings based on flight rules</t>
   </si>
   <si>
-    <t>0 (no filtering), 1 (not IFR) or 2 (not VFR)</t>
-  </si>
-  <si>
     <t>System_UseTSAborderHighlightColor</t>
   </si>
   <si>
@@ -4784,9 +4779,6 @@
     <t>Label_ASSR_AcceptPilotSquawk</t>
   </si>
   <si>
-    <t>When enabled, accepts the code squawked by a departed flight as the assigned squawk when no squawk code assignment has been done. This setting does not affect correlation, it only sets whether the squawked code is displayed as ASSR in that case, but for consistency this setting should be set according to the corresponding EuroScope setting in General Settings.</t>
-  </si>
-  <si>
     <t>Sets the time to keep certain track data when an aircraft disconnects to automatically set them back after reconnection. The saved data includes AHDG, ARC, ASP, ASSR, CFL, controller-entered RFL, direct-to point, scratchpad text, controller-entered comms type, contents of flight strip boxes and a small set of plugin specific data.</t>
   </si>
   <si>
@@ -4802,7 +4794,13 @@
     <t>19999</t>
   </si>
   <si>
-    <t>When a flight leg is displayed from a flight list (and no track label is visible), it stays displayed as long as this tag item for the flight in question is shown in the list unless manually toggled off. For flights with a track label shown, the flight leg will be automatically toggled off when the label stops being 'detailed', i.e. when the mouse cursor leaves the label area. The default value 10021 means the "List CALLSIGN" item, which is probably the most likely item to be found in any list. To use another item, open the list definition file to find the necessary item number. The tag item needs to be a "List" item from this plugin. The number is the fifth element in a column definition (the column header text is the second element).</t>
+    <t>When enabled, accepts the code squawked by a departed flight as the assigned squawk when no squawk code assignment has been done. This setting does not affect correlation, it only sets whether the squawked code is displayed as ASSR in that case.</t>
+  </si>
+  <si>
+    <t>When a flight leg is displayed for a flight without a track label visible, it stays displayed as long as this tag item for the flight in question is shown in the list unless manually toggled off. The default value 10021 means the "List CALLSIGN" item, which is probably the most likely item to be found in any list. To use another item, open the list definition file to find the necessary item number. The tag item needs to be a "List" item from this plugin. The number is the fifth element in a column definition (the column header text is the second element).</t>
+  </si>
+  <si>
+    <t>0 (no filtering), 1 (no alert for IFR) or 2 (no alert for VFR)</t>
   </si>
 </sst>
 </file>
@@ -6117,13 +6115,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C10" t="s">
         <v>1473</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1474</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>863</v>
@@ -6148,7 +6146,7 @@
         <v>1330</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C12" t="s">
         <v>161</v>
@@ -7092,7 +7090,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>621</v>
@@ -7101,10 +7099,10 @@
         <v>162</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="M61" s="2"/>
     </row>
@@ -7575,7 +7573,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>621</v>
@@ -7587,13 +7585,13 @@
         <v>806</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>621</v>
@@ -7605,7 +7603,7 @@
         <v>806</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="M86" s="2"/>
     </row>
@@ -8441,7 +8439,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>621</v>
@@ -8450,16 +8448,16 @@
         <v>162</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="M129" s="2"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>621</v>
@@ -8468,10 +8466,10 @@
         <v>162</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="M130" s="2"/>
     </row>
@@ -8900,7 +8898,7 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>621</v>
@@ -8909,16 +8907,16 @@
         <v>162</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="G152" s="2" t="s">
         <v>1454</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>1455</v>
       </c>
       <c r="M152" s="2"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>621</v>
@@ -8927,10 +8925,10 @@
         <v>162</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="M153" s="2"/>
     </row>
@@ -9470,7 +9468,7 @@
         <v>139</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C184" t="s">
         <v>163</v>
@@ -9487,7 +9485,7 @@
         <v>149</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C185" t="s">
         <v>163</v>
@@ -9521,7 +9519,7 @@
         <v>1026</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C187" t="s">
         <v>182</v>
@@ -9541,13 +9539,13 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B188" s="6" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C188" t="s">
         <v>1538</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1539</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>173</v>
@@ -9661,10 +9659,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B195" s="6" t="s">
         <v>1371</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>1372</v>
       </c>
       <c r="C195" t="s">
         <v>161</v>
@@ -10077,7 +10075,7 @@
         <v>1032</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C217" t="s">
         <v>169</v>
@@ -10163,10 +10161,10 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>1366</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>1367</v>
       </c>
       <c r="C221" t="s">
         <v>161</v>
@@ -10180,10 +10178,10 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C222" t="s">
         <v>161</v>
@@ -10197,19 +10195,19 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C223" t="s">
         <v>169</v>
       </c>
       <c r="D223" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E223" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F223" s="2">
         <v>1</v>
@@ -10220,19 +10218,19 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C224" t="s">
         <v>169</v>
       </c>
       <c r="D224" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E224" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E224" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F224" s="2">
         <v>1</v>
@@ -10243,19 +10241,19 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C225" t="s">
         <v>169</v>
       </c>
       <c r="D225" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E225" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E225" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F225" s="2">
         <v>1</v>
@@ -10266,19 +10264,19 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C226" t="s">
         <v>169</v>
       </c>
       <c r="D226" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E226" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F226" s="2">
         <v>1</v>
@@ -10289,19 +10287,19 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C227" t="s">
         <v>169</v>
       </c>
       <c r="D227" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E227" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F227" s="2">
         <v>1</v>
@@ -10312,19 +10310,19 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C228" t="s">
         <v>169</v>
       </c>
       <c r="D228" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E228" s="5" t="s">
         <v>1458</v>
-      </c>
-      <c r="E228" s="5" t="s">
-        <v>1459</v>
       </c>
       <c r="F228" s="2">
         <v>1</v>
@@ -10335,13 +10333,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C229" t="s">
         <v>1480</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1481</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>863</v>
@@ -10355,10 +10353,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="C230" t="s">
         <v>190</v>
@@ -10719,7 +10717,7 @@
         <v>1065</v>
       </c>
       <c r="C249" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>176</v>
@@ -10842,10 +10840,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>1574</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>1575</v>
       </c>
       <c r="C256" t="s">
         <v>171</v>
@@ -11068,7 +11066,7 @@
         <v>1364</v>
       </c>
       <c r="C270" t="s">
-        <v>1365</v>
+        <v>1586</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>863</v>
@@ -12408,7 +12406,7 @@
         <v>261</v>
       </c>
       <c r="B344" s="6" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C344" t="s">
         <v>161</v>
@@ -13293,19 +13291,19 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C389" t="s">
         <v>169</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E389" s="5" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="F389" s="2">
         <v>10021</v>
@@ -13319,7 +13317,7 @@
         <v>306</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C391" t="s">
         <v>161</v>
@@ -13370,10 +13368,10 @@
         <v>313</v>
       </c>
       <c r="B394" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C394" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>863</v>
@@ -14379,13 +14377,13 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B445" s="6" t="s">
         <v>1388</v>
       </c>
-      <c r="B445" s="6" t="s">
-        <v>1389</v>
-      </c>
       <c r="C445" s="19" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>863</v>
@@ -14399,19 +14397,19 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="B446" s="6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C446" t="s">
         <v>202</v>
       </c>
       <c r="D446" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E446" s="5" t="s">
         <v>1391</v>
-      </c>
-      <c r="E446" s="5" t="s">
-        <v>1392</v>
       </c>
       <c r="F446" s="2">
         <v>10</v>
@@ -14422,10 +14420,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B447" s="6" t="s">
         <v>1393</v>
-      </c>
-      <c r="B447" s="6" t="s">
-        <v>1394</v>
       </c>
       <c r="C447" t="s">
         <v>168</v>
@@ -14445,10 +14443,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B448" s="6" t="s">
         <v>1395</v>
-      </c>
-      <c r="B448" s="6" t="s">
-        <v>1396</v>
       </c>
       <c r="C448" t="s">
         <v>169</v>
@@ -14468,10 +14466,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B450" s="6" t="s">
         <v>1540</v>
-      </c>
-      <c r="B450" s="6" t="s">
-        <v>1541</v>
       </c>
       <c r="C450" t="s">
         <v>169</v>
@@ -14574,10 +14572,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B455" s="6" t="s">
         <v>1577</v>
-      </c>
-      <c r="B455" s="6" t="s">
-        <v>1578</v>
       </c>
       <c r="C455" t="s">
         <v>161</v>
@@ -14631,19 +14629,19 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="C458" t="s">
         <v>161</v>
       </c>
       <c r="F458" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G458" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
@@ -14708,10 +14706,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B462" s="6" t="s">
         <v>1511</v>
-      </c>
-      <c r="B462" s="6" t="s">
-        <v>1512</v>
       </c>
       <c r="C462" t="s">
         <v>169</v>
@@ -14748,10 +14746,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B464" s="6" t="s">
         <v>1513</v>
-      </c>
-      <c r="B464" s="6" t="s">
-        <v>1514</v>
       </c>
       <c r="C464" t="s">
         <v>169</v>
@@ -15106,7 +15104,7 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="B485" s="6" t="s">
         <v>635</v>
@@ -15120,7 +15118,7 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="B486" s="6" t="s">
         <v>635</v>
@@ -15134,7 +15132,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B487" s="6" t="s">
         <v>635</v>
@@ -15148,7 +15146,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B488" s="6" t="s">
         <v>635</v>
@@ -15162,7 +15160,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B489" s="6" t="s">
         <v>635</v>
@@ -16318,10 +16316,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B571" s="6" t="s">
         <v>1451</v>
-      </c>
-      <c r="B571" s="6" t="s">
-        <v>1452</v>
       </c>
       <c r="C571" s="6" t="s">
         <v>161</v>
@@ -16484,16 +16482,16 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C579" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D579" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E579" s="5" t="s">
         <v>181</v>
@@ -16507,10 +16505,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B580" s="6" t="s">
         <v>1380</v>
-      </c>
-      <c r="B580" s="6" t="s">
-        <v>1381</v>
       </c>
       <c r="C580" s="6" t="s">
         <v>169</v>
@@ -16530,10 +16528,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B581" s="6" t="s">
         <v>1382</v>
-      </c>
-      <c r="B581" s="6" t="s">
-        <v>1383</v>
       </c>
       <c r="C581" s="6" t="s">
         <v>169</v>
@@ -16553,10 +16551,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C582" s="6" t="s">
         <v>169</v>
@@ -16576,10 +16574,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="B583" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="C583" s="6" t="s">
         <v>169</v>
@@ -16809,7 +16807,7 @@
         <v>1185</v>
       </c>
       <c r="C594" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D594" s="5" t="s">
         <v>863</v>
@@ -16823,7 +16821,7 @@
         <v>1204</v>
       </c>
       <c r="C595" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D595" s="5" t="s">
         <v>863</v>
@@ -16837,7 +16835,7 @@
         <v>1206</v>
       </c>
       <c r="C596" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D596" s="5" t="s">
         <v>863</v>
@@ -16845,13 +16843,13 @@
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B597" s="6" t="s">
         <v>1485</v>
       </c>
-      <c r="B597" s="6" t="s">
-        <v>1486</v>
-      </c>
       <c r="C597" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D597" s="5" t="s">
         <v>863</v>
@@ -16859,13 +16857,13 @@
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B598" s="6" t="s">
         <v>1499</v>
       </c>
-      <c r="B598" s="6" t="s">
-        <v>1500</v>
-      </c>
       <c r="C598" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D598" s="5" t="s">
         <v>863</v>
@@ -16879,7 +16877,7 @@
         <v>1193</v>
       </c>
       <c r="C599" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D599" s="5" t="s">
         <v>863</v>
@@ -16893,7 +16891,7 @@
         <v>1195</v>
       </c>
       <c r="C600" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D600" s="5" t="s">
         <v>863</v>
@@ -16907,7 +16905,7 @@
         <v>1179</v>
       </c>
       <c r="C601" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D601" s="5" t="s">
         <v>863</v>
@@ -16915,13 +16913,13 @@
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B602" s="6" t="s">
         <v>1507</v>
       </c>
-      <c r="B602" s="6" t="s">
-        <v>1508</v>
-      </c>
       <c r="C602" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D602" s="5" t="s">
         <v>863</v>
@@ -16935,7 +16933,7 @@
         <v>1177</v>
       </c>
       <c r="C603" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D603" s="5" t="s">
         <v>863</v>
@@ -16943,13 +16941,13 @@
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B604" s="6" t="s">
         <v>1487</v>
       </c>
-      <c r="B604" s="6" t="s">
-        <v>1488</v>
-      </c>
       <c r="C604" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="D604" s="5" t="s">
         <v>863</v>
@@ -16963,7 +16961,7 @@
         <v>1202</v>
       </c>
       <c r="C605" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D605" s="5" t="s">
         <v>863</v>
@@ -16977,7 +16975,7 @@
         <v>1173</v>
       </c>
       <c r="C606" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D606" s="5" t="s">
         <v>863</v>
@@ -16991,7 +16989,7 @@
         <v>1175</v>
       </c>
       <c r="C607" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D607" s="5" t="s">
         <v>863</v>
@@ -16999,13 +16997,13 @@
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B608" s="6" t="s">
         <v>1501</v>
       </c>
-      <c r="B608" s="6" t="s">
-        <v>1502</v>
-      </c>
       <c r="C608" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D608" s="5" t="s">
         <v>863</v>
@@ -17013,13 +17011,13 @@
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B609" s="6" t="s">
         <v>1495</v>
       </c>
-      <c r="B609" s="6" t="s">
-        <v>1496</v>
-      </c>
       <c r="C609" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D609" s="5" t="s">
         <v>863</v>
@@ -17033,7 +17031,7 @@
         <v>1183</v>
       </c>
       <c r="C610" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D610" s="5" t="s">
         <v>863</v>
@@ -17041,13 +17039,13 @@
     </row>
     <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B611" s="6" t="s">
         <v>1509</v>
       </c>
-      <c r="B611" s="6" t="s">
-        <v>1510</v>
-      </c>
       <c r="C611" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D611" s="5" t="s">
         <v>863</v>
@@ -17061,7 +17059,7 @@
         <v>1169</v>
       </c>
       <c r="C612" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D612" s="5" t="s">
         <v>863</v>
@@ -17069,13 +17067,13 @@
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B613" s="6" t="s">
         <v>1489</v>
       </c>
-      <c r="B613" s="6" t="s">
+      <c r="C613" t="s">
         <v>1490</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1491</v>
       </c>
       <c r="D613" s="5" t="s">
         <v>863</v>
@@ -17083,13 +17081,13 @@
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B614" s="6" t="s">
         <v>1497</v>
       </c>
-      <c r="B614" s="6" t="s">
-        <v>1498</v>
-      </c>
       <c r="C614" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D614" s="5" t="s">
         <v>863</v>
@@ -17103,7 +17101,7 @@
         <v>1181</v>
       </c>
       <c r="C615" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="D615" s="5" t="s">
         <v>863</v>
@@ -17117,7 +17115,7 @@
         <v>1187</v>
       </c>
       <c r="C617" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D617" s="5" t="s">
         <v>863</v>
@@ -17131,7 +17129,7 @@
         <v>1197</v>
       </c>
       <c r="C618" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D618" s="5" t="s">
         <v>863</v>
@@ -17145,7 +17143,7 @@
         <v>1167</v>
       </c>
       <c r="C619" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D619" s="5" t="s">
         <v>863</v>
@@ -17153,13 +17151,13 @@
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B620" s="6" t="s">
         <v>1373</v>
       </c>
-      <c r="B620" s="6" t="s">
-        <v>1374</v>
-      </c>
       <c r="C620" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D620" s="5" t="s">
         <v>863</v>
@@ -17173,7 +17171,7 @@
         <v>1191</v>
       </c>
       <c r="C621" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D621" s="5" t="s">
         <v>863</v>
@@ -17187,7 +17185,7 @@
         <v>1209</v>
       </c>
       <c r="C622" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D622" s="5" t="s">
         <v>863</v>
@@ -17195,13 +17193,13 @@
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B623" s="6" t="s">
         <v>1503</v>
       </c>
-      <c r="B623" s="6" t="s">
-        <v>1504</v>
-      </c>
       <c r="C623" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D623" s="5" t="s">
         <v>863</v>
@@ -17209,13 +17207,13 @@
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B624" s="6" t="s">
         <v>1505</v>
       </c>
-      <c r="B624" s="6" t="s">
-        <v>1506</v>
-      </c>
       <c r="C624" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D624" s="5" t="s">
         <v>863</v>
@@ -17229,7 +17227,7 @@
         <v>1199</v>
       </c>
       <c r="C625" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D625" s="5" t="s">
         <v>863</v>
@@ -17243,7 +17241,7 @@
         <v>1171</v>
       </c>
       <c r="C626" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D626" s="5" t="s">
         <v>863</v>
@@ -17257,7 +17255,7 @@
         <v>1189</v>
       </c>
       <c r="C627" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="D627" s="5" t="s">
         <v>863</v>
@@ -17368,10 +17366,10 @@
         <v>163</v>
       </c>
       <c r="F635" s="18" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G635" s="18" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
@@ -17447,7 +17445,7 @@
         <v>802</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="C640" t="s">
         <v>163</v>
@@ -17472,27 +17470,27 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="C643" t="s">
         <v>163</v>
       </c>
       <c r="F643" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G643" s="2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B644" s="6" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C644" t="s">
         <v>169</v>
@@ -17512,10 +17510,10 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="C645" t="s">
         <v>169</v>
@@ -17535,10 +17533,10 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B646" s="6" t="s">
         <v>1525</v>
-      </c>
-      <c r="B646" s="6" t="s">
-        <v>1526</v>
       </c>
       <c r="C646" t="s">
         <v>169</v>
@@ -17558,10 +17556,10 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B647" s="6" t="s">
         <v>1527</v>
-      </c>
-      <c r="B647" s="6" t="s">
-        <v>1528</v>
       </c>
       <c r="C647" t="s">
         <v>169</v>
@@ -17581,10 +17579,10 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B648" s="6" t="s">
         <v>1529</v>
-      </c>
-      <c r="B648" s="6" t="s">
-        <v>1530</v>
       </c>
       <c r="C648" t="s">
         <v>161</v>
@@ -17607,10 +17605,10 @@
         <v>163</v>
       </c>
       <c r="F650" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G650" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
@@ -17681,10 +17679,10 @@
         <v>163</v>
       </c>
       <c r="F655" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G655" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
@@ -17766,10 +17764,10 @@
         <v>163</v>
       </c>
       <c r="F661" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="G661" s="18" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
@@ -17842,19 +17840,19 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B667" s="6" t="s">
         <v>1515</v>
-      </c>
-      <c r="B667" s="6" t="s">
-        <v>1516</v>
       </c>
       <c r="C667" t="s">
         <v>163</v>
       </c>
       <c r="F667" s="18" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G667" s="18" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
@@ -18416,10 +18414,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B695" s="6" t="s">
         <v>1534</v>
-      </c>
-      <c r="B695" s="6" t="s">
-        <v>1535</v>
       </c>
       <c r="C695" t="s">
         <v>161</v>
@@ -18678,10 +18676,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B709" s="6" t="s">
         <v>1532</v>
-      </c>
-      <c r="B709" s="6" t="s">
-        <v>1533</v>
       </c>
       <c r="C709" t="s">
         <v>161</v>
@@ -18704,10 +18702,10 @@
         <v>163</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G710" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
@@ -18721,10 +18719,10 @@
         <v>163</v>
       </c>
       <c r="F711" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="G711" s="2" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
@@ -18738,10 +18736,10 @@
         <v>163</v>
       </c>
       <c r="F712" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="G712" s="2" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
@@ -18755,27 +18753,27 @@
         <v>163</v>
       </c>
       <c r="F713" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="G713" s="2" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B714" s="6" t="s">
         <v>1550</v>
-      </c>
-      <c r="B714" s="6" t="s">
-        <v>1551</v>
       </c>
       <c r="C714" t="s">
         <v>163</v>
       </c>
       <c r="F714" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G714" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
@@ -18789,10 +18787,10 @@
         <v>163</v>
       </c>
       <c r="F715" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G715" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
@@ -18806,10 +18804,10 @@
         <v>163</v>
       </c>
       <c r="F716" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G716" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
@@ -18823,10 +18821,10 @@
         <v>163</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G717" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
@@ -18840,10 +18838,10 @@
         <v>163</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G718" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
@@ -18857,44 +18855,44 @@
         <v>163</v>
       </c>
       <c r="F719" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="G719" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B720" s="6" t="s">
         <v>1552</v>
-      </c>
-      <c r="B720" s="6" t="s">
-        <v>1553</v>
       </c>
       <c r="C720" t="s">
         <v>163</v>
       </c>
       <c r="F720" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="G720" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B721" s="6" t="s">
         <v>1554</v>
-      </c>
-      <c r="B721" s="6" t="s">
-        <v>1555</v>
       </c>
       <c r="C721" t="s">
         <v>163</v>
       </c>
       <c r="F721" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="G721" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
@@ -18908,10 +18906,10 @@
         <v>163</v>
       </c>
       <c r="F722" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G722" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
@@ -18925,10 +18923,10 @@
         <v>163</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G723" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
@@ -18942,18 +18940,18 @@
         <v>163</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G724" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B726" s="6" t="s">
         <v>1406</v>
-      </c>
-      <c r="B726" s="6" t="s">
-        <v>1407</v>
       </c>
       <c r="C726" t="s">
         <v>161</v>
@@ -18967,81 +18965,81 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B727" s="6" t="s">
         <v>1408</v>
-      </c>
-      <c r="B727" s="6" t="s">
-        <v>1409</v>
       </c>
       <c r="C727" t="s">
         <v>163</v>
       </c>
       <c r="F727" s="18" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="G727" s="18" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B728" s="6" t="s">
         <v>1410</v>
-      </c>
-      <c r="B728" s="6" t="s">
-        <v>1411</v>
       </c>
       <c r="C728" t="s">
         <v>163</v>
       </c>
       <c r="F728" s="18" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="G728" s="18" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B729" s="6" t="s">
         <v>1412</v>
-      </c>
-      <c r="B729" s="6" t="s">
-        <v>1413</v>
       </c>
       <c r="C729" t="s">
         <v>163</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="G729" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B730" s="6" t="s">
         <v>1414</v>
-      </c>
-      <c r="B730" s="6" t="s">
-        <v>1415</v>
       </c>
       <c r="C730" t="s">
         <v>163</v>
       </c>
       <c r="F730" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="G730" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B731" s="6" t="s">
         <v>1416</v>
       </c>
-      <c r="B731" s="6" t="s">
+      <c r="C731" t="s">
         <v>1417</v>
-      </c>
-      <c r="C731" t="s">
-        <v>1418</v>
       </c>
       <c r="F731" s="2">
         <v>256</v>
@@ -19052,10 +19050,10 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B732" s="6" t="s">
         <v>1419</v>
-      </c>
-      <c r="B732" s="6" t="s">
-        <v>1420</v>
       </c>
       <c r="C732" t="s">
         <v>169</v>
@@ -19064,7 +19062,7 @@
         <v>176</v>
       </c>
       <c r="E732" s="5" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="F732" s="2">
         <v>3</v>
@@ -19081,19 +19079,19 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B733" s="6" t="s">
         <v>1422</v>
-      </c>
-      <c r="B733" s="6" t="s">
-        <v>1423</v>
       </c>
       <c r="C733" t="s">
         <v>169</v>
       </c>
       <c r="D733" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E733" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="E733" s="5" t="s">
-        <v>1425</v>
       </c>
       <c r="H733" s="2">
         <v>59</v>
@@ -19110,19 +19108,19 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C734" t="s">
         <v>169</v>
       </c>
       <c r="D734" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E734" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="E734" s="5" t="s">
-        <v>1425</v>
       </c>
       <c r="F734" s="2">
         <v>90</v>
@@ -19145,19 +19143,19 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C735" t="s">
         <v>169</v>
       </c>
       <c r="D735" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E735" s="5" t="s">
         <v>1424</v>
-      </c>
-      <c r="E735" s="5" t="s">
-        <v>1425</v>
       </c>
       <c r="F735" s="2">
         <v>-90</v>
@@ -19180,19 +19178,19 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="B736" s="6" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C736" t="s">
         <v>169</v>
       </c>
       <c r="D736" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E736" s="5" t="s">
         <v>1435</v>
-      </c>
-      <c r="E736" s="5" t="s">
-        <v>1436</v>
       </c>
       <c r="H736" s="2">
         <v>24</v>
@@ -19209,19 +19207,19 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="B737" s="6" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C737" t="s">
         <v>169</v>
       </c>
       <c r="D737" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E737" s="5" t="s">
         <v>1435</v>
-      </c>
-      <c r="E737" s="5" t="s">
-        <v>1436</v>
       </c>
       <c r="F737" s="2">
         <v>180</v>
@@ -19244,19 +19242,19 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="B738" s="6" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C738" t="s">
         <v>169</v>
       </c>
       <c r="D738" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E738" s="5" t="s">
         <v>1435</v>
-      </c>
-      <c r="E738" s="5" t="s">
-        <v>1436</v>
       </c>
       <c r="F738" s="2">
         <v>-180</v>
@@ -19279,19 +19277,19 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B739" s="6" t="s">
         <v>1437</v>
       </c>
-      <c r="B739" s="6" t="s">
-        <v>1438</v>
-      </c>
       <c r="C739" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D739" s="5" t="s">
         <v>174</v>
       </c>
       <c r="E739" s="5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="F739" s="2">
         <v>50</v>
@@ -19302,13 +19300,13 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B740" s="6" t="s">
         <v>1441</v>
       </c>
-      <c r="B740" s="6" t="s">
-        <v>1442</v>
-      </c>
       <c r="C740" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="D740" s="5" t="s">
         <v>174</v>
@@ -19325,19 +19323,19 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C741" t="s">
         <v>169</v>
       </c>
       <c r="D741" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E741" s="5" t="s">
         <v>1447</v>
-      </c>
-      <c r="E741" s="5" t="s">
-        <v>1448</v>
       </c>
       <c r="F741" s="2">
         <v>40</v>
@@ -19348,19 +19346,19 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="B742" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="C742" t="s">
         <v>169</v>
       </c>
       <c r="D742" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E742" s="5" t="s">
         <v>1447</v>
-      </c>
-      <c r="E742" s="5" t="s">
-        <v>1448</v>
       </c>
       <c r="F742" s="2">
         <v>30</v>
@@ -19371,19 +19369,19 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="B743" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C743" t="s">
         <v>169</v>
       </c>
       <c r="D743" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E743" s="5" t="s">
         <v>1447</v>
-      </c>
-      <c r="E743" s="5" t="s">
-        <v>1448</v>
       </c>
       <c r="F743" s="2">
         <v>95</v>
@@ -19393,6 +19391,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -19979,28 +19978,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>